--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.5795806330933</v>
+        <v>396.7862655693949</v>
       </c>
       <c r="AB2" t="n">
-        <v>435.8946369613631</v>
+        <v>542.900473526645</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.2934645917352</v>
+        <v>491.0868142988613</v>
       </c>
       <c r="AD2" t="n">
-        <v>318579.5806330933</v>
+        <v>396786.2655693949</v>
       </c>
       <c r="AE2" t="n">
-        <v>435894.6369613631</v>
+        <v>542900.473526645</v>
       </c>
       <c r="AF2" t="n">
         <v>1.030081564769077e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.2375</v>
       </c>
       <c r="AH2" t="n">
-        <v>394293.4645917352</v>
+        <v>491086.8142988613</v>
       </c>
     </row>
     <row r="3">
@@ -2058,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.5181445139828</v>
+        <v>178.6049097876713</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.8948804300771</v>
+        <v>244.3751170638936</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.6761409645319</v>
+        <v>221.0522988740174</v>
       </c>
       <c r="AD3" t="n">
-        <v>139518.1445139828</v>
+        <v>178604.9097876713</v>
       </c>
       <c r="AE3" t="n">
-        <v>190894.8804300771</v>
+        <v>244375.1170638936</v>
       </c>
       <c r="AF3" t="n">
         <v>1.871632513299244e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.387499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>172676.1409645319</v>
+        <v>221052.2988740174</v>
       </c>
     </row>
     <row r="4">
@@ -2164,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.1037632225014</v>
+        <v>156.156363077409</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.2265350943747</v>
+        <v>213.6600250949434</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.9347394643661</v>
+        <v>193.2686121736718</v>
       </c>
       <c r="AD4" t="n">
-        <v>117103.7632225014</v>
+        <v>156156.363077409</v>
       </c>
       <c r="AE4" t="n">
-        <v>160226.5350943747</v>
+        <v>213660.0250949434</v>
       </c>
       <c r="AF4" t="n">
         <v>2.114066688346922e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.425</v>
       </c>
       <c r="AH4" t="n">
-        <v>144934.7394643661</v>
+        <v>193268.6121736718</v>
       </c>
     </row>
     <row r="5">
@@ -2270,28 +2270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.5998204870089</v>
+        <v>155.6524203419165</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.5370184112898</v>
+        <v>212.9705084118585</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.3110292857718</v>
+        <v>192.6449019950775</v>
       </c>
       <c r="AD5" t="n">
-        <v>116599.8204870089</v>
+        <v>155652.4203419165</v>
       </c>
       <c r="AE5" t="n">
-        <v>159537.0184112898</v>
+        <v>212970.5084118585</v>
       </c>
       <c r="AF5" t="n">
         <v>2.130188786998321e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.366666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>144311.0292857718</v>
+        <v>192644.9019950775</v>
       </c>
     </row>
   </sheetData>
@@ -2567,28 +2567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.7513651653212</v>
+        <v>277.446878378519</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.9910713962062</v>
+        <v>379.6150590899025</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.6010463367352</v>
+        <v>343.3851306434431</v>
       </c>
       <c r="AD2" t="n">
-        <v>209751.3651653212</v>
+        <v>277446.878378519</v>
       </c>
       <c r="AE2" t="n">
-        <v>286991.0713962062</v>
+        <v>379615.0590899025</v>
       </c>
       <c r="AF2" t="n">
         <v>1.442238119434691e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.90833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>259601.0463367352</v>
+        <v>343385.1306434431</v>
       </c>
     </row>
     <row r="3">
@@ -2673,28 +2673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.256400096833</v>
+        <v>152.9785966972649</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.3306472490417</v>
+        <v>209.3120649404741</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.4106696870775</v>
+        <v>189.3356152339432</v>
       </c>
       <c r="AD3" t="n">
-        <v>114256.400096833</v>
+        <v>152978.5966972649</v>
       </c>
       <c r="AE3" t="n">
-        <v>156330.6472490417</v>
+        <v>209312.0649404741</v>
       </c>
       <c r="AF3" t="n">
         <v>2.273569362833117e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.554166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>141410.6696870775</v>
+        <v>189335.6152339432</v>
       </c>
     </row>
     <row r="4">
@@ -2779,28 +2779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.4633795733654</v>
+        <v>152.0840909473121</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.2456015832375</v>
+        <v>208.0881627105807</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.4291792567461</v>
+        <v>188.2285205151129</v>
       </c>
       <c r="AD4" t="n">
-        <v>113463.3795733654</v>
+        <v>152084.0909473121</v>
       </c>
       <c r="AE4" t="n">
-        <v>155245.6015832375</v>
+        <v>208088.1627105807</v>
       </c>
       <c r="AF4" t="n">
         <v>2.297928151372951e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.475000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>140429.1792567461</v>
+        <v>188228.5205151129</v>
       </c>
     </row>
   </sheetData>
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.3986843859818</v>
+        <v>155.8547767636682</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.9983033581376</v>
+        <v>213.2473813954344</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.5374126517284</v>
+        <v>192.8953506096946</v>
       </c>
       <c r="AD2" t="n">
-        <v>118398.6843859818</v>
+        <v>155854.7767636682</v>
       </c>
       <c r="AE2" t="n">
-        <v>161998.3033581376</v>
+        <v>213247.3813954343</v>
       </c>
       <c r="AF2" t="n">
         <v>2.795157315018401e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.574999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>146537.4126517284</v>
+        <v>192895.3506096946</v>
       </c>
     </row>
     <row r="3">
@@ -3182,28 +3182,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.4001100560872</v>
+        <v>155.8562024337735</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.0002540228719</v>
+        <v>213.2493320601687</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.5391771477582</v>
+        <v>192.8971151057244</v>
       </c>
       <c r="AD3" t="n">
-        <v>118400.1100560872</v>
+        <v>155856.2024337735</v>
       </c>
       <c r="AE3" t="n">
-        <v>162000.2540228719</v>
+        <v>213249.3320601687</v>
       </c>
       <c r="AF3" t="n">
         <v>2.805627577255899e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>146539.1771477583</v>
+        <v>192897.1151057244</v>
       </c>
     </row>
   </sheetData>
@@ -3479,28 +3479,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.350422003369</v>
+        <v>163.3148679360649</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.5099774552608</v>
+        <v>223.4546072534971</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.1413059227436</v>
+        <v>202.1284131577986</v>
       </c>
       <c r="AD2" t="n">
-        <v>125350.4220033691</v>
+        <v>163314.8679360649</v>
       </c>
       <c r="AE2" t="n">
-        <v>171509.9774552608</v>
+        <v>223454.6072534971</v>
       </c>
       <c r="AF2" t="n">
         <v>2.421899395213258e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.570833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>155141.3059227436</v>
+        <v>202128.4131577986</v>
       </c>
     </row>
     <row r="3">
@@ -3585,28 +3585,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.5080949363252</v>
+        <v>156.8526147411574</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.8338066479989</v>
+        <v>214.612667337739</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.5338784346231</v>
+        <v>194.1303355778571</v>
       </c>
       <c r="AD3" t="n">
-        <v>109508.0949363252</v>
+        <v>156852.6147411574</v>
       </c>
       <c r="AE3" t="n">
-        <v>149833.8066479989</v>
+        <v>214612.667337739</v>
       </c>
       <c r="AF3" t="n">
         <v>2.618837833681939e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.925</v>
       </c>
       <c r="AH3" t="n">
-        <v>135533.8784346231</v>
+        <v>194130.3355778571</v>
       </c>
     </row>
   </sheetData>
@@ -3882,28 +3882,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.0466807491741</v>
+        <v>174.2014114785741</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.1991176218101</v>
+        <v>238.3500564087553</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.4783597295394</v>
+        <v>215.6022615515778</v>
       </c>
       <c r="AD2" t="n">
-        <v>128046.6807491741</v>
+        <v>174201.4114785741</v>
       </c>
       <c r="AE2" t="n">
-        <v>175199.1176218101</v>
+        <v>238350.0564087553</v>
       </c>
       <c r="AF2" t="n">
         <v>2.931843318142564e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.362499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>158478.3597295394</v>
+        <v>215602.2615515778</v>
       </c>
     </row>
   </sheetData>
@@ -4179,28 +4179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.8748820931699</v>
+        <v>300.8032175661793</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.629687394442</v>
+        <v>411.5722327754217</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.2201172291859</v>
+        <v>372.2923565245913</v>
       </c>
       <c r="AD2" t="n">
-        <v>232874.8820931699</v>
+        <v>300803.2175661793</v>
       </c>
       <c r="AE2" t="n">
-        <v>318629.687394442</v>
+        <v>411572.2327754217</v>
       </c>
       <c r="AF2" t="n">
         <v>1.329651002251151e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>288220.1172291859</v>
+        <v>372292.3565245913</v>
       </c>
     </row>
     <row r="3">
@@ -4285,28 +4285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.5482647068762</v>
+        <v>155.3839795021828</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.4664775184319</v>
+        <v>212.603215812161</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.2472207167235</v>
+        <v>192.3126632855966</v>
       </c>
       <c r="AD3" t="n">
-        <v>116548.2647068762</v>
+        <v>155383.9795021828</v>
       </c>
       <c r="AE3" t="n">
-        <v>159466.4775184319</v>
+        <v>212603.215812161</v>
       </c>
       <c r="AF3" t="n">
         <v>2.1934676505269e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.641666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>144247.2207167235</v>
+        <v>192312.6632855966</v>
       </c>
     </row>
     <row r="4">
@@ -4391,28 +4391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.5811209776239</v>
+        <v>151.3153505464452</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.0384564500424</v>
+        <v>207.0363381796823</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.337242360824</v>
+        <v>187.277080641198</v>
       </c>
       <c r="AD4" t="n">
-        <v>112581.1209776239</v>
+        <v>151315.3505464452</v>
       </c>
       <c r="AE4" t="n">
-        <v>154038.4564500424</v>
+        <v>207036.3381796823</v>
       </c>
       <c r="AF4" t="n">
         <v>2.29844327337924e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>139337.242360824</v>
+        <v>187277.080641198</v>
       </c>
     </row>
   </sheetData>
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.822271082394</v>
+        <v>184.7025430903314</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.9427557012086</v>
+        <v>252.7181679571847</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.8148856834708</v>
+        <v>228.5991006996009</v>
       </c>
       <c r="AD2" t="n">
-        <v>138822.271082394</v>
+        <v>184702.5430903314</v>
       </c>
       <c r="AE2" t="n">
-        <v>189942.7557012086</v>
+        <v>252718.1679571847</v>
       </c>
       <c r="AF2" t="n">
         <v>2.966810346199562e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>171814.8856834708</v>
+        <v>228599.1006996009</v>
       </c>
     </row>
   </sheetData>
@@ -4985,28 +4985,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.0917716864233</v>
+        <v>215.9666707966834</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.9905777068541</v>
+        <v>295.4951267609641</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.0405997643815</v>
+        <v>267.293486593</v>
       </c>
       <c r="AD2" t="n">
-        <v>168091.7716864233</v>
+        <v>215966.6707966834</v>
       </c>
       <c r="AE2" t="n">
-        <v>229990.5777068542</v>
+        <v>295495.1267609641</v>
       </c>
       <c r="AF2" t="n">
         <v>1.851434193480987e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.0875</v>
       </c>
       <c r="AH2" t="n">
-        <v>208040.5997643815</v>
+        <v>267293.486593</v>
       </c>
     </row>
     <row r="3">
@@ -5091,28 +5091,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.1787274790932</v>
+        <v>149.5325026134649</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.1196397961191</v>
+        <v>204.5969669840802</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.6015548752744</v>
+        <v>185.0705196088244</v>
       </c>
       <c r="AD3" t="n">
-        <v>111178.7274790932</v>
+        <v>149532.5026134649</v>
       </c>
       <c r="AE3" t="n">
-        <v>152119.6397961191</v>
+        <v>204596.9669840802</v>
       </c>
       <c r="AF3" t="n">
         <v>2.446738117181888e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.633333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>137601.5548752744</v>
+        <v>185070.5196088244</v>
       </c>
     </row>
   </sheetData>
@@ -5388,28 +5388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.1413912060198</v>
+        <v>255.9464485801135</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.1057928291958</v>
+        <v>350.1972225075398</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.2318364610267</v>
+        <v>316.7748910964135</v>
       </c>
       <c r="AD2" t="n">
-        <v>198141.3912060198</v>
+        <v>255946.4485801135</v>
       </c>
       <c r="AE2" t="n">
-        <v>271105.7928291957</v>
+        <v>350197.2225075398</v>
       </c>
       <c r="AF2" t="n">
         <v>1.56293717371754e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.27916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>245231.8364610267</v>
+        <v>316774.8910964135</v>
       </c>
     </row>
     <row r="3">
@@ -5494,28 +5494,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.9175974319176</v>
+        <v>151.5219591656368</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.4988383791003</v>
+        <v>207.3190292073891</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.7536860847228</v>
+        <v>187.53279203398</v>
       </c>
       <c r="AD3" t="n">
-        <v>112917.5974319176</v>
+        <v>151521.9591656369</v>
       </c>
       <c r="AE3" t="n">
-        <v>154498.8383791003</v>
+        <v>207319.0292073891</v>
       </c>
       <c r="AF3" t="n">
         <v>2.3342952754218e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.550000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>139753.6860847228</v>
+        <v>187532.79203398</v>
       </c>
     </row>
     <row r="4">
@@ -5600,28 +5600,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.9838451307232</v>
+        <v>151.5882068644425</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.5894814032483</v>
+        <v>207.4096722315371</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.8356782658645</v>
+        <v>187.6147842151217</v>
       </c>
       <c r="AD4" t="n">
-        <v>112983.8451307232</v>
+        <v>151588.2068644425</v>
       </c>
       <c r="AE4" t="n">
-        <v>154589.4814032483</v>
+        <v>207409.6722315371</v>
       </c>
       <c r="AF4" t="n">
         <v>2.336156619969074e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.545833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>139835.6782658645</v>
+        <v>187614.7842151216</v>
       </c>
     </row>
   </sheetData>
@@ -5897,28 +5897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.6094597635002</v>
+        <v>355.8819847931942</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.5199512822821</v>
+        <v>486.9334319991393</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.9629594406208</v>
+        <v>440.4611886645048</v>
       </c>
       <c r="AD2" t="n">
-        <v>287609.4597635003</v>
+        <v>355881.9847931942</v>
       </c>
       <c r="AE2" t="n">
-        <v>393519.9512822821</v>
+        <v>486933.4319991393</v>
       </c>
       <c r="AF2" t="n">
         <v>1.120259881761258e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.30416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>355962.9594406208</v>
+        <v>440461.1886645048</v>
       </c>
     </row>
     <row r="3">
@@ -6003,28 +6003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.8629000976973</v>
+        <v>173.8469201970772</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.5253696448295</v>
+        <v>237.8650257983598</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.9145273489617</v>
+        <v>215.1635215818936</v>
       </c>
       <c r="AD3" t="n">
-        <v>134862.9000976973</v>
+        <v>173846.9201970772</v>
       </c>
       <c r="AE3" t="n">
-        <v>184525.3696448295</v>
+        <v>237865.0257983598</v>
       </c>
       <c r="AF3" t="n">
         <v>1.972520343111469e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>166914.5273489617</v>
+        <v>215163.5215818936</v>
       </c>
     </row>
     <row r="4">
@@ -6109,28 +6109,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.8954862975531</v>
+        <v>154.8453409781522</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.5733173002456</v>
+        <v>211.8662268205281</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.4393024562024</v>
+        <v>191.6460114889544</v>
       </c>
       <c r="AD4" t="n">
-        <v>115895.4862975531</v>
+        <v>154845.3409781522</v>
       </c>
       <c r="AE4" t="n">
-        <v>158573.3173002456</v>
+        <v>211866.2268205281</v>
       </c>
       <c r="AF4" t="n">
         <v>2.161877373690318e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.412499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>143439.3024562024</v>
+        <v>191646.0114889544</v>
       </c>
     </row>
   </sheetData>
@@ -6406,28 +6406,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.1663386116083</v>
+        <v>180.2121521795084</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.5182564245246</v>
+        <v>246.5742170109341</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.9537070395105</v>
+        <v>223.0415198085692</v>
       </c>
       <c r="AD2" t="n">
-        <v>142166.3386116083</v>
+        <v>180212.1521795084</v>
       </c>
       <c r="AE2" t="n">
-        <v>194518.2564245246</v>
+        <v>246574.2170109341</v>
       </c>
       <c r="AF2" t="n">
         <v>2.206245337804611e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.054166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>175953.7070395105</v>
+        <v>223041.5198085692</v>
       </c>
     </row>
     <row r="3">
@@ -6512,28 +6512,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.0086363179566</v>
+        <v>148.0876042747803</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.5186694486739</v>
+        <v>202.6199933326771</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.1533788908129</v>
+        <v>183.2822255480107</v>
       </c>
       <c r="AD3" t="n">
-        <v>110008.6363179566</v>
+        <v>148087.6042747803</v>
       </c>
       <c r="AE3" t="n">
-        <v>150518.6694486739</v>
+        <v>202619.9933326771</v>
       </c>
       <c r="AF3" t="n">
         <v>2.558036478369805e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.808333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>136153.3788908129</v>
+        <v>183282.2255480107</v>
       </c>
     </row>
   </sheetData>
@@ -6809,28 +6809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.3776608338365</v>
+        <v>155.9140745007188</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.9695380065987</v>
+        <v>213.3285151752985</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.511392624968</v>
+        <v>192.9687410954805</v>
       </c>
       <c r="AD2" t="n">
-        <v>118377.6608338365</v>
+        <v>155914.0745007188</v>
       </c>
       <c r="AE2" t="n">
-        <v>161969.5380065987</v>
+        <v>213328.5151752985</v>
       </c>
       <c r="AF2" t="n">
         <v>2.737114376179399e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>146511.392624968</v>
+        <v>192968.7410954805</v>
       </c>
     </row>
     <row r="3">
@@ -6915,28 +6915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.335346068548</v>
+        <v>155.8717597354303</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.9116410779354</v>
+        <v>213.2706182466351</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.4590212979174</v>
+        <v>192.9163697684299</v>
       </c>
       <c r="AD3" t="n">
-        <v>118335.346068548</v>
+        <v>155871.7597354304</v>
       </c>
       <c r="AE3" t="n">
-        <v>161911.6410779354</v>
+        <v>213270.6182466351</v>
       </c>
       <c r="AF3" t="n">
         <v>2.747580727381854e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.266666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>146459.0212979174</v>
+        <v>192916.3697684299</v>
       </c>
     </row>
   </sheetData>
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.2423458366501</v>
+        <v>164.7380175061302</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.7843940577721</v>
+        <v>225.4018232801874</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.3439185547662</v>
+        <v>203.889789619837</v>
       </c>
       <c r="AD2" t="n">
-        <v>118242.3458366501</v>
+        <v>164738.0175061302</v>
       </c>
       <c r="AE2" t="n">
-        <v>161784.3940577722</v>
+        <v>225401.8232801874</v>
       </c>
       <c r="AF2" t="n">
         <v>2.869729155719756e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.887499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>146343.9185547662</v>
+        <v>203889.789619837</v>
       </c>
     </row>
   </sheetData>
@@ -11866,28 +11866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.1965386671064</v>
+        <v>205.8013461537541</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.8737745247608</v>
+        <v>281.5864811220428</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.1300318333427</v>
+        <v>254.7122625729461</v>
       </c>
       <c r="AD2" t="n">
-        <v>151196.5386671064</v>
+        <v>205801.3461537541</v>
       </c>
       <c r="AE2" t="n">
-        <v>206873.7745247608</v>
+        <v>281586.4811220428</v>
       </c>
       <c r="AF2" t="n">
         <v>2.944987239516045e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.45416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>187130.0318333427</v>
+        <v>254712.2625729461</v>
       </c>
     </row>
   </sheetData>
@@ -12163,28 +12163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.9049301799812</v>
+        <v>235.5933759145028</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.4173740837317</v>
+        <v>322.3492505722708</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.1859615396812</v>
+        <v>291.5846905177636</v>
       </c>
       <c r="AD2" t="n">
-        <v>177904.9301799812</v>
+        <v>235593.3759145028</v>
       </c>
       <c r="AE2" t="n">
-        <v>243417.3740837317</v>
+        <v>322349.2505722708</v>
       </c>
       <c r="AF2" t="n">
         <v>1.697430821274284e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.67916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>220185.9615396812</v>
+        <v>291584.6905177636</v>
       </c>
     </row>
     <row r="3">
@@ -12269,28 +12269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.1518206151513</v>
+        <v>150.6335613840195</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.4510687547123</v>
+        <v>206.1034841692369</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.8059141227322</v>
+        <v>186.4332569082404</v>
       </c>
       <c r="AD3" t="n">
-        <v>112151.8206151513</v>
+        <v>150633.5613840195</v>
       </c>
       <c r="AE3" t="n">
-        <v>153451.0687547123</v>
+        <v>206103.4841692369</v>
       </c>
       <c r="AF3" t="n">
         <v>2.383597570085319e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>138805.9141227322</v>
+        <v>186433.2569082404</v>
       </c>
     </row>
     <row r="4">
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.9982824725848</v>
+        <v>150.4800232414531</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.2409910944282</v>
+        <v>205.8934065089528</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.6158859794997</v>
+        <v>186.2432287650079</v>
       </c>
       <c r="AD4" t="n">
-        <v>111998.2824725848</v>
+        <v>150480.0232414531</v>
       </c>
       <c r="AE4" t="n">
-        <v>153240.9910944282</v>
+        <v>205893.4065089528</v>
       </c>
       <c r="AF4" t="n">
         <v>2.394428347927091e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.570833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>138615.8859794997</v>
+        <v>186243.2287650079</v>
       </c>
     </row>
   </sheetData>
@@ -12672,28 +12672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.6536824256153</v>
+        <v>326.7064987498496</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.901379289849</v>
+        <v>447.0142448630323</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.1255283541304</v>
+        <v>404.3518327217367</v>
       </c>
       <c r="AD2" t="n">
-        <v>258653.6824256153</v>
+        <v>326706.4987498496</v>
       </c>
       <c r="AE2" t="n">
-        <v>353901.379289849</v>
+        <v>447014.2448630322</v>
       </c>
       <c r="AF2" t="n">
         <v>1.22215270786018e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>320125.5283541305</v>
+        <v>404351.8327217367</v>
       </c>
     </row>
     <row r="3">
@@ -12778,28 +12778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.0516800705127</v>
+        <v>159.9969952423519</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.6282490956202</v>
+        <v>218.9149474597485</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.8209214626877</v>
+        <v>198.0220121233114</v>
       </c>
       <c r="AD3" t="n">
-        <v>121051.6800705127</v>
+        <v>159996.9952423519</v>
       </c>
       <c r="AE3" t="n">
-        <v>165628.2490956202</v>
+        <v>218914.9474597485</v>
       </c>
       <c r="AF3" t="n">
         <v>2.070879692054832e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.908333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>149820.9214626877</v>
+        <v>198022.0121233114</v>
       </c>
     </row>
     <row r="4">
@@ -12884,28 +12884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.0810347782944</v>
+        <v>153.9248647236483</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.4589488005311</v>
+        <v>210.6067906005702</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.4312877220743</v>
+        <v>190.5067740941991</v>
       </c>
       <c r="AD4" t="n">
-        <v>115081.0347782944</v>
+        <v>153924.8647236483</v>
       </c>
       <c r="AE4" t="n">
-        <v>157458.9488005311</v>
+        <v>210606.7906005702</v>
       </c>
       <c r="AF4" t="n">
         <v>2.205416714695302e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.425</v>
       </c>
       <c r="AH4" t="n">
-        <v>142431.2877220743</v>
+        <v>190506.7740941991</v>
       </c>
     </row>
   </sheetData>
@@ -13181,28 +13181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.8722431096681</v>
+        <v>249.0126088061228</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.3186031271632</v>
+        <v>340.7100370293491</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.0467925831821</v>
+        <v>308.1931492849099</v>
       </c>
       <c r="AD2" t="n">
-        <v>185872.2431096681</v>
+        <v>249012.6088061229</v>
       </c>
       <c r="AE2" t="n">
-        <v>254318.6031271632</v>
+        <v>340710.0370293491</v>
       </c>
       <c r="AF2" t="n">
         <v>2.788672034371647e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.24583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>230046.7925831821</v>
+        <v>308193.1492849099</v>
       </c>
     </row>
   </sheetData>
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.3110827258798</v>
+        <v>158.0161943602329</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.614931135845</v>
+        <v>216.2047283060673</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.9043131467924</v>
+        <v>195.5704524818401</v>
       </c>
       <c r="AD2" t="n">
-        <v>120311.0827258798</v>
+        <v>158016.1943602329</v>
       </c>
       <c r="AE2" t="n">
-        <v>164614.931135845</v>
+        <v>216204.7283060673</v>
       </c>
       <c r="AF2" t="n">
         <v>2.618432341499998e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.270833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>148904.3131467924</v>
+        <v>195570.4524818401</v>
       </c>
     </row>
     <row r="3">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.6404423700247</v>
+        <v>156.3455540043779</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.3290872975145</v>
+        <v>213.9188844677368</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.8366270361894</v>
+        <v>193.5027663712372</v>
       </c>
       <c r="AD3" t="n">
-        <v>118640.4423700247</v>
+        <v>156345.5540043779</v>
       </c>
       <c r="AE3" t="n">
-        <v>162329.0872975145</v>
+        <v>213918.8844677368</v>
       </c>
       <c r="AF3" t="n">
         <v>2.68252729846074e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>146836.6270361894</v>
+        <v>193502.7663712372</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.0562039050447</v>
+        <v>197.830943650655</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.3135181952896</v>
+        <v>270.6810247879663</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.7186841781222</v>
+        <v>244.8476076854864</v>
       </c>
       <c r="AD2" t="n">
-        <v>150056.2039050447</v>
+        <v>197830.943650655</v>
       </c>
       <c r="AE2" t="n">
-        <v>205313.5181952896</v>
+        <v>270681.0247879663</v>
       </c>
       <c r="AF2" t="n">
         <v>2.015870481855314e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.566666666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>185718.6841781222</v>
+        <v>244847.6076854864</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.8092496752414</v>
+        <v>149.0290414717296</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.6141039646789</v>
+        <v>203.9081092388203</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.1442666740627</v>
+        <v>184.447405479954</v>
       </c>
       <c r="AD3" t="n">
-        <v>110809.2496752414</v>
+        <v>149029.0414717296</v>
       </c>
       <c r="AE3" t="n">
-        <v>151614.1039646789</v>
+        <v>203908.1092388203</v>
       </c>
       <c r="AF3" t="n">
         <v>2.493373177334623e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.733333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>137144.2666740627</v>
+        <v>184447.405479954</v>
       </c>
     </row>
   </sheetData>
